--- a/DOC/tablas importantes/llama1 llama 2 falcon.xlsx
+++ b/DOC/tablas importantes/llama1 llama 2 falcon.xlsx
@@ -15,28 +15,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commonsense 
-Reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World 
-Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading
-Comprehension</t>
-  </si>
-  <si>
-    <t>Math</t>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de Parámetros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación en tareas de Código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razonamiento común</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocimiento del Mundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprensión lectora</t>
+  </si>
+  <si>
+    <t>Matemáticas</t>
   </si>
   <si>
     <t>MMLU</t>
@@ -51,8 +48,8 @@
     <t>MPT</t>
   </si>
   <si>
-    <t xml:space="preserve">7B
-30B</t>
+    <t xml:space="preserve">7 Mil millones
+30 Mil millones</t>
   </si>
   <si>
     <t xml:space="preserve">20,5
@@ -90,8 +87,8 @@
     <t>Falcon</t>
   </si>
   <si>
-    <t xml:space="preserve">7B
-40B</t>
+    <t xml:space="preserve">7 Mil millones
+40 Mil millones</t>
   </si>
   <si>
     <t xml:space="preserve">5,6
@@ -129,10 +126,10 @@
     <t xml:space="preserve">Llama 1</t>
   </si>
   <si>
-    <t xml:space="preserve">7B
-13B
-33B
-65B</t>
+    <t xml:space="preserve">7 Mil millones
+13 Mil millones
+33 Mil millones
+65 Mil millones</t>
   </si>
   <si>
     <t xml:space="preserve">14,1
@@ -186,10 +183,10 @@
     <t xml:space="preserve">Llama 2</t>
   </si>
   <si>
-    <t xml:space="preserve">7B
-13B
-34B
-70B</t>
+    <t xml:space="preserve">7 Mil millones
+13 Mil millones
+34 Mil millones
+70 Mil millones</t>
   </si>
   <si>
     <t xml:space="preserve">16,8
@@ -260,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -268,20 +265,36 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,24 +803,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="18.57421875"/>
+    <col customWidth="1" min="3" max="3" width="16.7109375"/>
     <col bestFit="1" customWidth="1" min="4" max="4" width="14.00390625"/>
-    <col bestFit="1" min="5" max="5" width="10.140625"/>
+    <col customWidth="1" min="5" max="5" width="13.57421875"/>
+    <col customWidth="1" min="6" max="6" width="13.8515625"/>
+    <col bestFit="1" min="7" max="7" width="11.8515625"/>
+    <col customWidth="1" min="8" max="8" width="18.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75">
-      <c r="A1" t="s">
+    <row r="1" ht="28.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -819,27 +837,27 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -865,7 +883,7 @@
       </c>
     </row>
     <row r="3" ht="28.5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -897,7 +915,7 @@
       </c>
     </row>
     <row r="4" ht="57">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -924,18 +942,18 @@
       <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="57">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
